--- a/3. waardelijsten/IMKL2015 - 0.7 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.7 waardelijsten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-5190" yWindow="915" windowWidth="20115" windowHeight="7995" tabRatio="645" activeTab="9"/>
+    <workbookView xWindow="-5190" yWindow="915" windowWidth="20115" windowHeight="7995" tabRatio="645"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="8" r:id="rId1"/>
@@ -1507,15 +1507,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1524,7 +1524,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="352424"/>
+          <a:off x="638175" y="409574"/>
           <a:ext cx="4229100" cy="3209925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2225,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -2240,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
